--- a/IndDev/IndDev/Upload/NKL.xlsx
+++ b/IndDev/IndDev/Upload/NKL.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,9 +14,10 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист3" sheetId="3" r:id="rId2"/>
-    <sheet name="history" sheetId="2" r:id="rId3"/>
+    <sheet name="мелочь" sheetId="4" r:id="rId3"/>
+    <sheet name="history" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" refMode="R1C1"/>
+  <calcPr calcId="171027" refMode="R1C1" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="222">
   <si>
     <t>Валюта</t>
   </si>
@@ -137,56 +138,612 @@
     <t>упаковка</t>
   </si>
   <si>
+    <t>Industrial Development</t>
+  </si>
+  <si>
+    <t>БК-520-з-1-7U</t>
+  </si>
+  <si>
+    <t>Шкаф антивандальный серии БК, пенал, замок сувальный, (ШхВхГ) 520х320х400.</t>
+  </si>
+  <si>
+    <t>БК-550-з-2-2U</t>
+  </si>
+  <si>
+    <t>Шкаф антивандальный серии БК,  замок сувальный, (ШхВхГ) 550х500х150</t>
+  </si>
+  <si>
+    <t>БК-550-з-1-3U/1,5</t>
+  </si>
+  <si>
+    <t>Шкаф антивандальный серии БК, пенал,  замок сувальный, (ШхВхГ) 550х500х150</t>
+  </si>
+  <si>
+    <t>БКМ-600-7U</t>
+  </si>
+  <si>
+    <t>Шкаф антивандальный серии Forpost БКМ-600-7U (1,5 мм) К-2135,  замок сувальный, (ШхВхГ) 600х370х450</t>
+  </si>
+  <si>
+    <t>БКМ-600-9U</t>
+  </si>
+  <si>
+    <t>Шкаф антивандальный серии FORPOST БКМ-600-9U К-1960,  замок сувальный, (ШхВхГ) 600х470х450</t>
+  </si>
+  <si>
+    <t>БКМ-600-12U</t>
+  </si>
+  <si>
+    <t>Шкаф антивандальный серии FORPOST БКМ-600-12U К- 1961,  замок сувальный, (ШхВхГ) 600х650х450</t>
+  </si>
+  <si>
+    <t>P БКМ-600-12U</t>
+  </si>
+  <si>
+    <t>Шкаф антивандальный дверь сейфовая серии FORPOST P БКМ-600-12U К-1940 дверь сейф,  замок сувальный, (ШхВхГ) 600х650х450</t>
+  </si>
+  <si>
+    <t>Вентиляторный блок без термостата (1 вентилятор), РН</t>
+  </si>
+  <si>
+    <t>Вентиляторный блок без термостата (2 вентилятора), БВ-2</t>
+  </si>
+  <si>
+    <t>Вентиляторный блок c термостатом (1 вентилятор), РНТ</t>
+  </si>
+  <si>
+    <t>Вентиляторный блок с термостатом (2 вентилятора), БВ-2Т</t>
+  </si>
+  <si>
+    <t>Блок вентиляторов БВ-4</t>
+  </si>
+  <si>
+    <t>Вентиляторный блок c термостатом (4 вентилятора), БВ-4Т</t>
+  </si>
+  <si>
+    <t>Вентиляторный блок c термостатом (6 вентиляторов), БВ-6Т</t>
+  </si>
+  <si>
+    <t>Заглушка 19" 1U</t>
+  </si>
+  <si>
+    <t>Заглушка 19" 2U</t>
+  </si>
+  <si>
+    <t>Заглушка 19" 3U</t>
+  </si>
+  <si>
+    <t>Заглушка 19" 4U</t>
+  </si>
+  <si>
+    <t>IDs-PH-wT-1</t>
+  </si>
+  <si>
+    <t>IDs-БВ-2-wT-2</t>
+  </si>
+  <si>
+    <t>IDs-PHТ-T-1</t>
+  </si>
+  <si>
+    <t>IDs-БВ-2Т-T-2</t>
+  </si>
+  <si>
+    <t>IDs-БВ-4Т-T-4</t>
+  </si>
+  <si>
+    <t>IDs-БВ-6Т-T-6</t>
+  </si>
+  <si>
+    <t>IDs-БВ-4</t>
+  </si>
+  <si>
+    <t>IDs-FP-1U</t>
+  </si>
+  <si>
+    <t>IDs-FP-2U</t>
+  </si>
+  <si>
+    <t>IDs-FP-3U</t>
+  </si>
+  <si>
+    <t>IDs-FP-4U</t>
+  </si>
+  <si>
+    <t>Организатор вертикальный ОВ-75-24U</t>
+  </si>
+  <si>
+    <t>Организатор вертикальный ОВ-150-24U</t>
+  </si>
+  <si>
+    <t>Организатор вертикальный ОВ-75-33U</t>
+  </si>
+  <si>
+    <t>Организатор вертикальный ОВ-150-33U</t>
+  </si>
+  <si>
+    <t>Организатор вертикальный ОВ-75-42U</t>
+  </si>
+  <si>
+    <t>Организатор вертикальный ОВ-150-42U</t>
+  </si>
+  <si>
+    <t>Организатор кабеля/К-856</t>
+  </si>
+  <si>
+    <t>Организатор скоба ОС.80.80.20</t>
+  </si>
+  <si>
+    <t>Полка консольная 1U 19"-280</t>
+  </si>
+  <si>
+    <t>Полка консольная 1U 19"-250</t>
+  </si>
+  <si>
+    <t>Полка консольная 2U 19"/к-350</t>
+  </si>
+  <si>
+    <t>Полка выдвижная консольная 450мм.</t>
+  </si>
+  <si>
+    <t>Полка выдвижная ПВ-400</t>
+  </si>
+  <si>
+    <t>Полка выдвижная ПВ-600</t>
+  </si>
+  <si>
+    <t>Полка 4ТКЛ-400</t>
+  </si>
+  <si>
+    <t>Полка 4ТКЛ-600</t>
+  </si>
+  <si>
+    <t>Полка 4ТКЛ-800</t>
+  </si>
+  <si>
+    <t>Полка 4ТКЛ-1000</t>
+  </si>
+  <si>
+    <t>Полка 4ТКУ-400</t>
+  </si>
+  <si>
+    <t>Полка 4ТКУ-600</t>
+  </si>
+  <si>
+    <t>Полка 4ТКУ-800</t>
+  </si>
+  <si>
+    <t>Полка 4ТКУ-1000</t>
+  </si>
+  <si>
+    <t>IDs-К-856</t>
+  </si>
+  <si>
+    <t>IDs-ОВ-75-24U</t>
+  </si>
+  <si>
+    <t>IDs-ОВ-150-24U</t>
+  </si>
+  <si>
+    <t>IDs-ОВ-75-33U</t>
+  </si>
+  <si>
+    <t>IDs-ОВ-150-33U</t>
+  </si>
+  <si>
+    <t>IDs-ОВ-75-42U</t>
+  </si>
+  <si>
+    <t>IDs-ОВ-150-42U</t>
+  </si>
+  <si>
+    <t>ОС.80.80.20</t>
+  </si>
+  <si>
+    <t>IDs-4ТКЛ-400</t>
+  </si>
+  <si>
+    <t>IDs-4ТКЛ-600</t>
+  </si>
+  <si>
+    <t>IDs-4ТКЛ-800</t>
+  </si>
+  <si>
+    <t>IDs-4ТКЛ-1000</t>
+  </si>
+  <si>
+    <t>IDs-4ТКУ-400</t>
+  </si>
+  <si>
+    <t>IDs-4ТКУ-600</t>
+  </si>
+  <si>
+    <t>IDs-4ТКУ-800</t>
+  </si>
+  <si>
+    <t>IDs-4ТКУ-1000</t>
+  </si>
+  <si>
+    <t>IDs-ПВ-400</t>
+  </si>
+  <si>
+    <t>IDs-ПВ-600</t>
+  </si>
+  <si>
+    <t>IDs-CSh-280</t>
+  </si>
+  <si>
+    <t>IDs-CSh-250</t>
+  </si>
+  <si>
+    <t>IDs-CSh-k-350</t>
+  </si>
+  <si>
+    <t>IDs-CSlidSh-450</t>
+  </si>
+  <si>
+    <t>ЭЛЕКТРО РАСПРЕДЕЛИТЕЛЬНАЯ ПАНЕЛЬ ЭРП 3U 19</t>
+  </si>
+  <si>
+    <t>IDs-ЭРП-3U-19-nC</t>
+  </si>
+  <si>
+    <t>Регулируемая опора М12</t>
+  </si>
+  <si>
+    <t>Шина заземления 19" (482-25-5)</t>
+  </si>
+  <si>
+    <t>IDs-M12</t>
+  </si>
+  <si>
+    <t>IDs-GROUND-19-482-25-5</t>
+  </si>
+  <si>
+    <t>Всепогодный климатический коммуникационный шкаф антивандальный 6U (ШхВхГ) 660х600х550 полезная глубина 450мм.</t>
+  </si>
+  <si>
+    <t>Всепогодный климатический коммуникационный шкаф антивандальный 9U (ШхВхГ) 660х600х683 полезная глубина 450мм.</t>
+  </si>
+  <si>
+    <t>Всепогодный климатический коммуникационный шкаф антивандальный 12U (ШхВхГ) 660х600х816 полезная глубина 450мм.</t>
+  </si>
+  <si>
+    <t>Всепогодный климатический коммуникационный шкаф антивандальный 24U (ШхВхГ) 715х860х1300 полезная глубина 600мм.</t>
+  </si>
+  <si>
+    <t>Всепогодный климатический коммуникационный шкаф антивандальный 33U (ШхВхГ) 715х860х1700 полезная глубина 600мм.</t>
+  </si>
+  <si>
+    <t>Всепогодный климатический коммуникационный шкаф антивандальный 42U (ШхВхГ) 715х860х2100 полезная глубина 600мм.</t>
+  </si>
+  <si>
+    <t>IDs-FT-WM-6U</t>
+  </si>
+  <si>
+    <t>IDs-FT-WM-9U</t>
+  </si>
+  <si>
+    <t>IDs-FT-WM-12U</t>
+  </si>
+  <si>
+    <t>IDs-FT-FS-24U</t>
+  </si>
+  <si>
+    <t>IDs-FT-FS-33U</t>
+  </si>
+  <si>
+    <t>IDs-FT-FS-42U</t>
+  </si>
+  <si>
+    <t>Настенный телекоммуникационный шкаф 19" СН 6U (ВхШхГ) 345х600х450, дверь: "ПЕРФОРИРОВАННАЯ", максимальная нагрузка 120 кг.</t>
+  </si>
+  <si>
+    <t>Настенный телекоммуникационный шкаф 19" СН 6U (ВхШхГ) 345х600х600, дверь: "СТЕКЛО", максимальная нагрузка 120 кг.</t>
+  </si>
+  <si>
+    <t>Настенный телекоммуникационный шкаф 19" СН 6U (ВхШхГ) 345х600х450, дверь: "СТЕКЛО", максимальная нагрузка 120 кг.</t>
+  </si>
+  <si>
+    <t>Настенный телекоммуникационный шкаф 19" СН 9U (ВхШхГ) 480х600х450, дверь: "СТЕКЛО", максимальная нагрузка 120 кг.</t>
+  </si>
+  <si>
+    <t>Настенный телекоммуникационный шкаф 19" СН 9U (ВхШхГ) 480х600х450, дверь: "ПЕРФОРИРОВАННАЯ", максимальная нагрузка 120 кг.</t>
+  </si>
+  <si>
+    <t>Настенный телекоммуникационный шкаф 19" СН 9U (ВхШхГ) 480х600х600, дверь: "СТЕКЛО", максимальная нагрузка 120 кг.</t>
+  </si>
+  <si>
+    <t>Настенный телекоммуникационный шкаф 19" СН 12U (ВхШхГ) 615х600х450, дверь: "СТЕКЛО", максимальная нагрузка 120 кг.</t>
+  </si>
+  <si>
+    <t>Настенный телекоммуникационный шкаф 19" СН 12U (ВхШхГ) 615х600х450, дверь: "ПЕРФОРИРОВАННАЯ", максимальная нагрузка 120 кг.</t>
+  </si>
+  <si>
+    <t>Настенный телекоммуникационный шкаф 19" СН 12U (ВхШхГ) 615х600х600, дверь: "СТЕКЛО", максимальная нагрузка 120 кг.</t>
+  </si>
+  <si>
+    <t>Настенный телекоммуникационный шкаф 19" СН 15U (ВхШхГ) 745х600х450, дверь: "СТЕКЛО", максимальная нагрузка 120 кг.</t>
+  </si>
+  <si>
+    <t>Настенный телекоммуникационный шкаф 19" СН 15U (ВхШхГ) 745х600х450, дверь: "ПЕРФОРИРОВАННАЯ", максимальная нагрузка 120 кг.</t>
+  </si>
+  <si>
+    <t>Настенный телекоммуникационный шкаф 19" СН 15U (ВхШхГ) 745х600х600, дверь: "СТЕКЛО", максимальная нагрузка 120 кг.</t>
+  </si>
+  <si>
+    <t>IDs-WM-6U-DG-450</t>
+  </si>
+  <si>
+    <t>IDs-WM-6U-DG-600</t>
+  </si>
+  <si>
+    <t>IDs-WM-9U-DG-450</t>
+  </si>
+  <si>
+    <t>IDs-WM-9U-DG-600</t>
+  </si>
+  <si>
+    <t>IDs-WM-12U-DG-450</t>
+  </si>
+  <si>
+    <t>IDs-WM-12U-DG-600</t>
+  </si>
+  <si>
+    <t>IDs-WM-15U-DG-450</t>
+  </si>
+  <si>
+    <t>IDs-WM-15U-DG-600</t>
+  </si>
+  <si>
+    <t>IDs-WM-6U-DP-450</t>
+  </si>
+  <si>
+    <t>IDs-WM-6U-DP-600</t>
+  </si>
+  <si>
+    <t>IDs-WM-9U-DP-450</t>
+  </si>
+  <si>
+    <t>IDs-WM-9U-DP-600</t>
+  </si>
+  <si>
+    <t>IDs-WM-12U-DP-450</t>
+  </si>
+  <si>
+    <t>IDs-WM-12U-DP-600</t>
+  </si>
+  <si>
+    <t>IDs-WM-15U-DP-450</t>
+  </si>
+  <si>
+    <t>IDs-WM-15U-DP-600</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 18U (ВхШхГ) 880х600х600, дверь: "СТЕКЛО", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 18U (ВхШхГ) 880х600х800, дверь: "СТЕКЛО", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 18U (ВхШхГ) 880х600х600, дверь: "ПЕРФОРИРОВАННАЯ", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 18U (ВхШхГ) 880х600х800, дверь: "ПЕРФОРИРОВАННАЯ", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 24U (ВхШхГ) 1200х600х600, дверь: "СТЕКЛО", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 24U (ВхШхГ) 1200х600х600, дверь: "ПЕРФОРИРОВАННАЯ", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 24U (ВхШхГ) 1200х600х800, дверь: "СТЕКЛО", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 24U (ВхШхГ) 1200х600х800, дверь: "ПЕРФОРИРОВАННАЯ", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 24U (ВхШхГ) 1200х600х1000, дверь: "СТЕКЛО", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 24U (ВхШхГ) 1200х600х1000, дверь: "ПЕРФОРИРОВАННАЯ", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 33U (ВхШхГ) 1600х600х600, дверь: "СТЕКЛО", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 33U (ВхШхГ) 1600х600х600, дверь: "ПЕРФОРИРОВАННАЯ", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 33U (ВхШхГ) 1600х600х800, дверь: "СТЕКЛО", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 33U (ВхШхГ) 1600х600х800, дверь: "ПЕРФОРИРОВАННАЯ", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 33U (ВхШхГ) 1600х600х1000, дверь: "СТЕКЛО", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 33U (ВхШхГ) 1600х600х1000, дверь: "ПЕРФОРИРОВАННАЯ", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 42U (ВхШхГ) 2000х600х600, дверь: "СТЕКЛО", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 42U (ВхШхГ) 2000х600х600, дверь: "ПЕРФОРИРОВАННАЯ", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 42U (ВхШхГ) 2000х600х800, дверь: "СТЕКЛО", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 42U (ВхШхГ) 2000х600х800, дверь: "ПЕРФОРИРОВАННАЯ", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 42U (ВхШхГ) 2000х600х1000, дверь: "СТЕКЛО", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>Напольный телекоммуникационный шкаф 19" С 42U (ВхШхГ) 2000х600х1000, дверь: "ПЕРФОРИРОВАННАЯ", максимальная нагрузка 700 кг.</t>
+  </si>
+  <si>
+    <t>IDs-FS-18U-DG-600</t>
+  </si>
+  <si>
+    <t>IDs-FS-24U-DG-600</t>
+  </si>
+  <si>
+    <t>IDs-FS-33U-DG-600</t>
+  </si>
+  <si>
+    <t>IDs-FS-42U-DG-600</t>
+  </si>
+  <si>
+    <t>IDs-FS-18U-DP-800</t>
+  </si>
+  <si>
+    <t>IDs-FS-24U-DP-800</t>
+  </si>
+  <si>
+    <t>IDs-FS-33U-DP-800</t>
+  </si>
+  <si>
+    <t>IDs-FS-42U-DP-800</t>
+  </si>
+  <si>
+    <t>IDs-FS-18U-DP-600</t>
+  </si>
+  <si>
+    <t>IDs-FS-24U-DP-600</t>
+  </si>
+  <si>
+    <t>IDs-FS-33U-DP-600</t>
+  </si>
+  <si>
+    <t>IDs-FS-42U-DP-600</t>
+  </si>
+  <si>
+    <t>IDs-FS-18U-DG-800</t>
+  </si>
+  <si>
+    <t>IDs-FS-24U-DG-800</t>
+  </si>
+  <si>
+    <t>IDs-FS-24U-DG-1000</t>
+  </si>
+  <si>
+    <t>IDs-FS-33U-DG-800</t>
+  </si>
+  <si>
+    <t>IDs-FS-33U-DG-1000</t>
+  </si>
+  <si>
+    <t>IDs-FS-42U-DG-800</t>
+  </si>
+  <si>
+    <t>IDs-FS-42U-DG-1000</t>
+  </si>
+  <si>
+    <t>IDs-FS-24U-DP-1000</t>
+  </si>
+  <si>
+    <t>IDs-FS-33U-DP-1000</t>
+  </si>
+  <si>
+    <t>IDs-FS-42U-DP-1000</t>
+  </si>
+  <si>
+    <t>Стойка 19" 24U однорамная</t>
+  </si>
+  <si>
+    <t>Стойка 19" 33U однорамная</t>
+  </si>
+  <si>
+    <t>Стойка 19" 42U однорамная</t>
+  </si>
+  <si>
+    <t>Стойка 19" 24U двухрамная, максимальная нагрузка 1000 кг. Глубиная до 1000 мм.</t>
+  </si>
+  <si>
+    <t>Стойка 19" 33U двухрамная, максимальная нагрузка 1000 кг. Глубиная до 1000 мм.</t>
+  </si>
+  <si>
+    <t>Стойка 19" 42U двухрамная, максимальная нагрузка 1000 кг. Глубиная до 1000 мм.</t>
+  </si>
+  <si>
+    <t>IDs-OR-D-1000-24</t>
+  </si>
+  <si>
+    <t>IDs-OR-D-1000-33</t>
+  </si>
+  <si>
+    <t>IDs-OR-D-1000-42</t>
+  </si>
+  <si>
+    <t>IDs-OR-S-24</t>
+  </si>
+  <si>
+    <t>IDs-OR-S-33</t>
+  </si>
+  <si>
+    <t>IDs-OR-S-42</t>
+  </si>
+  <si>
+    <t>Адаптер оптический LC/PC-SM/MM duplex</t>
+  </si>
+  <si>
     <t>NETLAN</t>
   </si>
   <si>
-    <t>EC-PC4UD55B-005-GY-10</t>
-  </si>
-  <si>
-    <t>Коммутационный шнур NETLAN U/UTP 4 пары, Кат.5е (Класс D), 100МГц, 2хRJ45/8P8C, T568B, заливной, многожильный, PVC нг(B), серый, 0,5м, уп-ка 10шт.</t>
-  </si>
-  <si>
-    <t>EC-PC4UD55B-010-GY-10</t>
-  </si>
-  <si>
-    <t>Коммутационный шнур NETLAN U/UTP 4 пары, Кат.5е (Класс D), 100МГц, 2хRJ45/8P8C, T568B, заливной, многожильный, PVC нг(B), серый, 1м, уп-ка 10шт.</t>
-  </si>
-  <si>
-    <t>EC-PC4UD55B-015-GY-10</t>
-  </si>
-  <si>
-    <t>Коммутационный шнур NETLAN U/UTP 4 пары, Кат.5е (Класс D), 100МГц, 2хRJ45/8P8C, T568B, заливной, многожильный, PVC нг(B), серый, 1,5м, уп-ка 10шт.</t>
-  </si>
-  <si>
-    <t>EC-PC4UD55B-020-GY-10</t>
-  </si>
-  <si>
-    <t>Коммутационный шнур NETLAN U/UTP 4 пары, Кат.5е (Класс D), 100МГц, 2хRJ45/8P8C, T568B, заливной, многожильный, PVC нг(B), серый, 2м, уп-ка 10шт.</t>
-  </si>
-  <si>
-    <t>EC-PC4UD55B-030-GY-10</t>
-  </si>
-  <si>
-    <t>Коммутационный шнур NETLAN U/UTP 4 пары, Кат.5е (Класс D), 100МГц, 2хRJ45/8P8C, T568B, заливной, многожильный, PVC нг(B), серый, 3м, уп-ка 10шт.</t>
-  </si>
-  <si>
-    <t>EC-PC4UD55B-050-GY-10</t>
-  </si>
-  <si>
-    <t>Коммутационный шнур NETLAN U/UTP 4 пары, Кат.5е (Класс D), 100МГц, 2хRJ45/8P8C, T568B, заливной, многожильный, PVC нг(B), серый, 5м, уп-ка 10шт.</t>
-  </si>
-  <si>
-    <t>EC-PC4UD55B-100-GY-10</t>
-  </si>
-  <si>
-    <t>Коммутационный шнур NETLAN U/UTP 4 пары, Кат.5е (Класс D), 100МГц, 2хRJ45/8P8C, T568B, заливной, многожильный, PVC нг(B), серый, 10м, уп-ка 10шт.</t>
+    <t>NIKOMAX</t>
+  </si>
+  <si>
+    <t>GIGALINK</t>
+  </si>
+  <si>
+    <t>NIKOLAN</t>
+  </si>
+  <si>
+    <t>ЕВРОКАБЕЛЬ-1</t>
+  </si>
+  <si>
+    <t>ULAN</t>
+  </si>
+  <si>
+    <t>TLK</t>
+  </si>
+  <si>
+    <t>Ecoplast</t>
+  </si>
+  <si>
+    <t>No Name</t>
+  </si>
+  <si>
+    <t>Адаптер оптический SC/APC-SM</t>
+  </si>
+  <si>
+    <t>Адаптер оптический SC/PC-SM/MM duplex</t>
+  </si>
+  <si>
+    <t>Адаптер оптический SC/PC-SM/MM</t>
+  </si>
+  <si>
+    <t>Адаптер оптический FC/APC-SM-D</t>
+  </si>
+  <si>
+    <t>Адаптер оптический FC/PC-SM/MM-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-419]General"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,8 +783,42 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF494949"/>
+      <name val="Open_sanslight"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,8 +836,32 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF3333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF420E"/>
+        <bgColor rgb="FFFF420E"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -254,29 +869,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,11 +995,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="40% — акцент1" xfId="2" builtinId="31"/>
+    <cellStyle name="Excel Built-in Normal" xfId="3"/>
     <cellStyle name="Акцент1" xfId="1" builtinId="29"/>
+    <cellStyle name="Денежный" xfId="5" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_Аксессуары" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -600,15 +1323,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
     <col min="2" max="2" width="82.140625" customWidth="1"/>
     <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
@@ -616,7 +1339,7 @@
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -651,97 +1374,97 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="34">
+        <v>40</v>
+      </c>
+      <c r="D2" s="34">
+        <v>38</v>
+      </c>
+      <c r="E2" s="34">
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="35">
+        <v>14.5</v>
+      </c>
+      <c r="D3" s="35">
+        <v>13.5</v>
+      </c>
+      <c r="E3" s="35">
+        <v>12.5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="35">
+        <v>28</v>
+      </c>
+      <c r="D4" s="35">
+        <v>27</v>
+      </c>
+      <c r="E4" s="35">
         <v>25</v>
       </c>
-      <c r="C2" s="8">
-        <v>176</v>
-      </c>
-      <c r="D2" s="8">
-        <v>170</v>
-      </c>
-      <c r="E2" s="8">
-        <v>166</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8">
-        <v>207</v>
-      </c>
-      <c r="D3" s="8">
-        <v>200</v>
-      </c>
-      <c r="E3" s="8">
-        <v>193</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="8">
-        <v>269</v>
-      </c>
-      <c r="D4" s="8">
-        <v>259</v>
-      </c>
-      <c r="E4" s="8">
-        <v>249</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>23</v>
+      <c r="G4" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -750,33 +1473,33 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="8">
-        <v>304</v>
-      </c>
-      <c r="D5" s="8">
-        <v>300</v>
-      </c>
-      <c r="E5" s="8">
-        <v>273</v>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>23</v>
+      <c r="G5" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -785,33 +1508,33 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="8">
-        <v>399</v>
-      </c>
-      <c r="D6" s="8">
-        <v>380</v>
-      </c>
-      <c r="E6" s="8">
-        <v>360</v>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6">
+        <v>15.5</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>14.5</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>23</v>
+      <c r="G6" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -820,33 +1543,33 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="8">
-        <v>577</v>
-      </c>
-      <c r="D7" s="8">
-        <v>550</v>
-      </c>
-      <c r="E7" s="8">
-        <v>520</v>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7">
+        <v>15.5</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>14.5</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>23</v>
+      <c r="G7" s="31" t="s">
+        <v>215</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -855,62 +1578,28 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1079</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="7">
-        <v>950</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="66.42578125" customWidth="1"/>
@@ -918,7 +1607,7 @@
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -953,248 +1642,3263 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2300</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2250</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2200</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2600</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3200</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>3900</v>
+      </c>
+      <c r="D8">
+        <v>3850</v>
+      </c>
+      <c r="E8">
+        <v>3800</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>4700</v>
+      </c>
+      <c r="D9">
+        <v>4600</v>
+      </c>
+      <c r="E9">
+        <v>4500</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1100</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1050</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1000</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1950</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1900</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1900</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1850</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1800</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="18">
+        <v>2800</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2750</v>
+      </c>
+      <c r="E14" s="18">
+        <v>2600</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="18">
+        <v>3800</v>
+      </c>
+      <c r="D15" s="18">
+        <v>3700</v>
+      </c>
+      <c r="E15" s="18">
+        <v>3600</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="18">
+        <v>4500</v>
+      </c>
+      <c r="D16" s="18">
+        <v>4400</v>
+      </c>
+      <c r="E16" s="18">
+        <v>4300</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="18">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="18">
+        <v>4900</v>
+      </c>
+      <c r="E17" s="18">
+        <v>4800</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="18">
+        <v>100</v>
+      </c>
+      <c r="D18" s="18">
+        <v>95</v>
+      </c>
+      <c r="E18" s="18">
+        <v>90</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="18">
+        <v>140</v>
+      </c>
+      <c r="D19" s="18">
+        <v>135</v>
+      </c>
+      <c r="E19" s="18">
+        <v>130</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="18">
+        <v>160</v>
+      </c>
+      <c r="D20" s="18">
+        <v>155</v>
+      </c>
+      <c r="E20" s="18">
+        <v>150</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="18">
+        <v>200</v>
+      </c>
+      <c r="D21" s="18">
+        <v>190</v>
+      </c>
+      <c r="E21" s="18">
+        <v>180</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="16">
+        <v>800</v>
+      </c>
+      <c r="D23" s="16">
+        <v>750</v>
+      </c>
+      <c r="E23" s="16">
+        <v>700</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="16">
+        <v>850</v>
+      </c>
+      <c r="D24" s="16">
+        <v>800</v>
+      </c>
+      <c r="E24" s="16">
+        <v>750</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="16">
+        <v>1200</v>
+      </c>
+      <c r="D25" s="16">
+        <v>1100</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="16">
+        <v>1300</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1100</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="16">
+        <v>1400</v>
+      </c>
+      <c r="D27" s="16">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="16">
+        <v>1200</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="16">
+        <v>1300</v>
+      </c>
+      <c r="D28" s="16">
+        <v>1200</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1100</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="16">
+        <v>300</v>
+      </c>
+      <c r="D30" s="16">
+        <v>290</v>
+      </c>
+      <c r="E30" s="16">
+        <v>280</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="16">
+        <v>80</v>
+      </c>
+      <c r="D31" s="16">
+        <v>75</v>
+      </c>
+      <c r="E31" s="16">
+        <v>70</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="16">
+        <v>650</v>
+      </c>
+      <c r="D32" s="16">
+        <v>630</v>
+      </c>
+      <c r="E32" s="16">
+        <v>600</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="16">
+        <v>560</v>
+      </c>
+      <c r="D33" s="16">
+        <v>530</v>
+      </c>
+      <c r="E33" s="16">
+        <v>500</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="16">
+        <v>800</v>
+      </c>
+      <c r="D34" s="16">
+        <v>760</v>
+      </c>
+      <c r="E34" s="16">
+        <v>700</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="16">
+        <v>1500</v>
+      </c>
+      <c r="D35" s="16">
+        <v>1450</v>
+      </c>
+      <c r="E35" s="16">
+        <v>1400</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="16">
+        <v>1350</v>
+      </c>
+      <c r="D36" s="16">
+        <v>1300</v>
+      </c>
+      <c r="E36" s="16">
+        <v>1250</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="16">
+        <v>2200</v>
+      </c>
+      <c r="D37" s="16">
+        <v>2100</v>
+      </c>
+      <c r="E37" s="16">
+        <v>2000</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="16">
+        <v>800</v>
+      </c>
+      <c r="D38" s="16">
+        <v>760</v>
+      </c>
+      <c r="E38" s="16">
+        <v>730</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="16">
+        <v>900</v>
+      </c>
+      <c r="D39" s="16">
+        <v>880</v>
+      </c>
+      <c r="E39" s="16">
+        <v>850</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="16">
+        <v>950</v>
+      </c>
+      <c r="D40" s="16">
+        <v>930</v>
+      </c>
+      <c r="E40" s="16">
+        <v>900</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="16">
+        <v>1100</v>
+      </c>
+      <c r="D41" s="16">
+        <v>1060</v>
+      </c>
+      <c r="E41" s="16">
+        <v>1020</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D42" s="16">
+        <v>950</v>
+      </c>
+      <c r="E42" s="16">
+        <v>900</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="16">
+        <v>1100</v>
+      </c>
+      <c r="D43" s="16">
+        <v>1050</v>
+      </c>
+      <c r="E43" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="16">
+        <v>1300</v>
+      </c>
+      <c r="D44" s="16">
+        <v>1250</v>
+      </c>
+      <c r="E44" s="16">
+        <v>1200</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="16">
+        <v>1500</v>
+      </c>
+      <c r="D45" s="16">
+        <v>1450</v>
+      </c>
+      <c r="E45" s="16">
+        <v>1400</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16.5">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="16">
+        <v>450</v>
+      </c>
+      <c r="D47" s="16">
+        <v>430</v>
+      </c>
+      <c r="E47" s="16">
+        <v>400</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="16">
+        <v>70</v>
+      </c>
+      <c r="D49" s="16">
+        <v>68</v>
+      </c>
+      <c r="E49" s="16">
+        <v>65</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="16">
+        <v>1500</v>
+      </c>
+      <c r="D50" s="16">
+        <v>1450</v>
+      </c>
+      <c r="E50" s="16">
+        <v>1400</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="23">
+        <v>28700</v>
+      </c>
+      <c r="D52" s="23">
+        <v>27700</v>
+      </c>
+      <c r="E52" s="23">
+        <v>26700</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="23">
+        <v>29600</v>
+      </c>
+      <c r="D53" s="23">
+        <v>28600</v>
+      </c>
+      <c r="E53" s="23">
+        <v>27600</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="23">
+        <v>31400</v>
+      </c>
+      <c r="D54" s="23">
+        <v>30400</v>
+      </c>
+      <c r="E54" s="23">
+        <v>29400</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="23">
+        <v>69900</v>
+      </c>
+      <c r="D55" s="23">
+        <v>67900</v>
+      </c>
+      <c r="E55" s="23">
+        <v>65900</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="23">
+        <v>79800</v>
+      </c>
+      <c r="D56" s="23">
+        <v>77800</v>
+      </c>
+      <c r="E56" s="23">
+        <v>74800</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="23">
+        <v>89900</v>
+      </c>
+      <c r="D57" s="23">
+        <v>87900</v>
+      </c>
+      <c r="E57" s="23">
+        <v>85900</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="24">
+        <v>0</v>
+      </c>
+      <c r="D59" s="24">
+        <v>0</v>
+      </c>
+      <c r="E59" s="24">
+        <v>0</v>
+      </c>
+      <c r="F59" s="24">
+        <v>4350</v>
+      </c>
+      <c r="G59" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="24">
+        <v>0</v>
+      </c>
+      <c r="D60" s="24">
+        <v>0</v>
+      </c>
+      <c r="E60" s="24">
+        <v>0</v>
+      </c>
+      <c r="F60" s="24">
+        <v>4350</v>
+      </c>
+      <c r="G60" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="24">
+        <v>0</v>
+      </c>
+      <c r="D61" s="24">
+        <v>0</v>
+      </c>
+      <c r="E61" s="24">
+        <v>0</v>
+      </c>
+      <c r="F61" s="24">
+        <v>4400</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="24">
+        <v>0</v>
+      </c>
+      <c r="D62" s="24">
+        <v>0</v>
+      </c>
+      <c r="E62" s="24">
+        <v>0</v>
+      </c>
+      <c r="F62" s="24">
+        <v>4400</v>
+      </c>
+      <c r="G62" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="16">
+        <v>5000</v>
+      </c>
+      <c r="D63" s="16">
+        <v>4800</v>
+      </c>
+      <c r="E63" s="16">
+        <v>4500</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="16">
+        <v>5000</v>
+      </c>
+      <c r="D64" s="16">
+        <v>4800</v>
+      </c>
+      <c r="E64" s="16">
+        <v>4500</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="16">
+        <v>5250</v>
+      </c>
+      <c r="D65" s="16">
+        <v>5000</v>
+      </c>
+      <c r="E65" s="16">
+        <v>4750</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="16">
+        <v>5250</v>
+      </c>
+      <c r="D66" s="16">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="16">
+        <v>4750</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="16">
+        <v>5400</v>
+      </c>
+      <c r="D67" s="16">
+        <v>5150</v>
+      </c>
+      <c r="E67" s="16">
+        <v>4850</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="16">
+        <v>5400</v>
+      </c>
+      <c r="D68" s="16">
+        <v>5150</v>
+      </c>
+      <c r="E68" s="16">
+        <v>4850</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="16">
+        <v>5500</v>
+      </c>
+      <c r="D69" s="16">
+        <v>5300</v>
+      </c>
+      <c r="E69" s="16">
+        <v>5200</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="16">
+        <v>5500</v>
+      </c>
+      <c r="D70" s="16">
+        <v>5300</v>
+      </c>
+      <c r="E70" s="16">
+        <v>5200</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="16">
+        <v>6500</v>
+      </c>
+      <c r="D71" s="16">
+        <v>6000</v>
+      </c>
+      <c r="E71" s="16">
+        <v>5800</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="16">
+        <v>6500</v>
+      </c>
+      <c r="D72" s="16">
+        <v>6000</v>
+      </c>
+      <c r="E72" s="16">
+        <v>5800</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="16">
+        <v>6800</v>
+      </c>
+      <c r="D73" s="16">
+        <v>6300</v>
+      </c>
+      <c r="E73" s="16">
+        <v>6000</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="16">
+        <v>6800</v>
+      </c>
+      <c r="D74" s="16">
+        <v>6300</v>
+      </c>
+      <c r="E74" s="16">
+        <v>6000</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="16">
+        <v>12800</v>
+      </c>
+      <c r="D76" s="16">
+        <v>12300</v>
+      </c>
+      <c r="E76" s="16">
+        <v>11700</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="16">
+        <v>12200</v>
+      </c>
+      <c r="D77" s="16">
+        <v>11700</v>
+      </c>
+      <c r="E77" s="16">
+        <v>11200</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="16">
+        <v>13000</v>
+      </c>
+      <c r="D78" s="16">
+        <v>12500</v>
+      </c>
+      <c r="E78" s="16">
+        <v>12000</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="8">
+      <c r="B79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="16">
+        <v>13000</v>
+      </c>
+      <c r="D79" s="16">
+        <v>12500</v>
+      </c>
+      <c r="E79" s="16">
+        <v>12000</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" s="16">
+        <v>15200</v>
+      </c>
+      <c r="D80" s="16">
+        <v>14700</v>
+      </c>
+      <c r="E80" s="16">
+        <v>14200</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="16">
+        <v>15300</v>
+      </c>
+      <c r="D81" s="16">
+        <v>14800</v>
+      </c>
+      <c r="E81" s="16">
+        <v>14300</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>185</v>
+      </c>
+      <c r="B82" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="16">
+        <v>15400</v>
+      </c>
+      <c r="D82" s="16">
+        <v>15900</v>
+      </c>
+      <c r="E82" s="16">
+        <v>15400</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="16">
+        <v>16700</v>
+      </c>
+      <c r="D83" s="16">
+        <v>16200</v>
+      </c>
+      <c r="E83" s="16">
+        <v>15700</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>186</v>
+      </c>
+      <c r="B84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="16">
+        <v>17200</v>
+      </c>
+      <c r="D84" s="16">
+        <v>16700</v>
+      </c>
+      <c r="E84" s="16">
+        <v>16200</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="16">
+        <v>17500</v>
+      </c>
+      <c r="D85" s="16">
+        <v>17000</v>
+      </c>
+      <c r="E85" s="16">
+        <v>16500</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" s="16">
+        <v>18500</v>
+      </c>
+      <c r="D86" s="16">
+        <v>18000</v>
+      </c>
+      <c r="E86" s="16">
+        <v>17500</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" s="16">
+        <v>18800</v>
+      </c>
+      <c r="D87" s="16">
+        <v>18300</v>
+      </c>
+      <c r="E87" s="16">
+        <v>17800</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="16">
+        <v>18900</v>
+      </c>
+      <c r="D88" s="16">
+        <v>18400</v>
+      </c>
+      <c r="E88" s="16">
+        <v>17900</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" s="16">
+        <v>19000</v>
+      </c>
+      <c r="D89" s="16">
+        <v>18500</v>
+      </c>
+      <c r="E89" s="16">
+        <v>18000</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>188</v>
+      </c>
+      <c r="B90" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" s="16">
+        <v>19700</v>
+      </c>
+      <c r="D90" s="16">
+        <v>19200</v>
+      </c>
+      <c r="E90" s="16">
+        <v>18700</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>23</v>
+      </c>
+      <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" t="s">
+        <v>165</v>
+      </c>
+      <c r="C91" s="16">
+        <v>20000</v>
+      </c>
+      <c r="D91" s="16">
+        <v>19500</v>
+      </c>
+      <c r="E91" s="16">
+        <v>19000</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>23</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" s="25">
+        <v>0</v>
+      </c>
+      <c r="D92" s="25">
+        <v>0</v>
+      </c>
+      <c r="E92" s="25">
+        <v>0</v>
+      </c>
+      <c r="F92" s="25">
+        <v>19700</v>
+      </c>
+      <c r="G92" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" s="16">
+        <v>20300</v>
+      </c>
+      <c r="D93" s="16">
+        <v>20000</v>
+      </c>
+      <c r="E93" s="16">
+        <v>19500</v>
+      </c>
+      <c r="F93" s="26">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="25">
+        <v>0</v>
+      </c>
+      <c r="D94" s="25">
+        <v>0</v>
+      </c>
+      <c r="E94" s="25">
+        <v>0</v>
+      </c>
+      <c r="F94" s="25">
+        <v>21500</v>
+      </c>
+      <c r="G94" t="s">
+        <v>23</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" s="16">
+        <v>22600</v>
+      </c>
+      <c r="D95" s="16">
+        <v>22000</v>
+      </c>
+      <c r="E95" s="16">
+        <v>21600</v>
+      </c>
+      <c r="F95" s="26">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="8">
-        <v>166</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8">
-        <v>207</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C96" s="16">
+        <v>25000</v>
+      </c>
+      <c r="D96" s="16">
+        <v>24500</v>
+      </c>
+      <c r="E96" s="16">
+        <v>23700</v>
+      </c>
+      <c r="F96" s="26">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="16">
+        <v>25500</v>
+      </c>
+      <c r="D97" s="16">
+        <v>25000</v>
+      </c>
+      <c r="E97" s="16">
+        <v>24500</v>
+      </c>
+      <c r="F97" s="26">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>23</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="26.25">
+      <c r="A99" t="s">
         <v>200</v>
       </c>
-      <c r="E3" s="8">
-        <v>193</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="8">
-        <v>269</v>
-      </c>
-      <c r="D4" s="8">
-        <v>259</v>
-      </c>
-      <c r="E4" s="8">
-        <v>249</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="8">
-        <v>304</v>
-      </c>
-      <c r="D5" s="8">
-        <v>300</v>
-      </c>
-      <c r="E5" s="8">
-        <v>273</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="8">
-        <v>399</v>
-      </c>
-      <c r="D6" s="8">
-        <v>380</v>
-      </c>
-      <c r="E6" s="8">
-        <v>360</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="8">
-        <v>577</v>
-      </c>
-      <c r="D7" s="8">
-        <v>550</v>
-      </c>
-      <c r="E7" s="8">
-        <v>520</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1079</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="7">
-        <v>950</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
+      <c r="B99" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="16">
+        <v>5300</v>
+      </c>
+      <c r="D99" s="16">
+        <v>5000</v>
+      </c>
+      <c r="E99" s="16">
+        <v>4800</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="26.25">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="16">
+        <v>5700</v>
+      </c>
+      <c r="D100" s="16">
+        <v>5500</v>
+      </c>
+      <c r="E100" s="16">
+        <v>5300</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>23</v>
+      </c>
+      <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="26.25">
+      <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" s="24">
+        <v>0</v>
+      </c>
+      <c r="D101" s="24">
+        <v>0</v>
+      </c>
+      <c r="E101" s="24">
+        <v>0</v>
+      </c>
+      <c r="F101" s="24">
+        <v>6000</v>
+      </c>
+      <c r="G101" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102" s="16">
+        <v>4000</v>
+      </c>
+      <c r="D102" s="16">
+        <v>3800</v>
+      </c>
+      <c r="E102" s="16">
+        <v>3600</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>23</v>
+      </c>
+      <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C103" s="16">
+        <v>4400</v>
+      </c>
+      <c r="D103" s="16">
+        <v>4200</v>
+      </c>
+      <c r="E103" s="16">
+        <v>3850</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103">
+        <v>3</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" s="16">
+        <v>5200</v>
+      </c>
+      <c r="D104" s="16">
+        <v>5000</v>
+      </c>
+      <c r="E104" s="16">
+        <v>4800</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104">
+        <v>3</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
         <v>12</v>
       </c>
     </row>
@@ -1206,33 +4910,290 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="34">
+        <v>40</v>
+      </c>
+      <c r="D2" s="34">
+        <v>38</v>
+      </c>
+      <c r="E2" s="34">
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="35">
+        <v>14.5</v>
+      </c>
+      <c r="D3" s="35">
+        <v>13.5</v>
+      </c>
+      <c r="E3" s="35">
+        <v>12.5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="35">
+        <v>28</v>
+      </c>
+      <c r="D4" s="35">
+        <v>27</v>
+      </c>
+      <c r="E4" s="35">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6">
+        <v>15.5</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>14.5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7">
+        <v>15.5</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>14.5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1251,8 +5212,11 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1271,8 +5235,11 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1285,21 +5252,55 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="G7" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="G8" s="31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="G9" s="31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="G10" s="31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="G11" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
